--- a/outputs/house_all_sponsor_committee_votes.xlsx
+++ b/outputs/house_all_sponsor_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
